--- a/documents/Session.Attribute変数.xlsx
+++ b/documents/Session.Attribute変数.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3794E73-DA6D-43DD-B56A-4CC411D27F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB31160-F715-44C3-BA67-F6F980EDFF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF239538-DBE7-4F32-8849-F4A0CE460AA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>session</t>
     <phoneticPr fontId="1"/>
@@ -44,79 +45,94 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>account_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Session Name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>menu_tab</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>session.setAttribute</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HomeServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestSubjectServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnitServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResultSubjectServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestDetailServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestCommentaryServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共有セッション</t>
+    <rPh sb="0" eb="2">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id account_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>変数名</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンスウメイ</t>
+  </si>
+  <si>
+    <t>属性・値</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>list</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>subject</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>avg(score)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>subject_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>menu_tab</t>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト受験</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>テスト結果一覧</t>
-    <rPh sb="3" eb="5">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>unitId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>unitName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>unit_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>unit_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>session.setAttribute</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト受験</t>
-    <rPh sb="3" eb="5">
-      <t>ジュケン</t>
-    </rPh>
+  </si>
+  <si>
+    <t>user_id　subject　avg(score)　subject_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unitId　unitName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_report</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -141,15 +157,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -173,15 +213,97 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -189,59 +311,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -252,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -265,34 +348,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -609,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC6CA6A-91B2-4398-AA4A-D80DC773E996}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A2:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -620,128 +760,240 @@
     <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+      <c r="E4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C6" s="3"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="3"/>
+      <c r="D7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="3"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
+      <c r="K8" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C9" s="3"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+      <c r="I9" s="22"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C10" s="3"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="I10" s="22"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C11" s="3"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C12" s="3"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="I12" s="22"/>
+      <c r="J12" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C13" s="3"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C14" s="3"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C15" s="3"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -749,15 +1001,44 @@
       <c r="E16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B3:B4"/>
+  <mergeCells count="19">
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:F15"/>
+    <mergeCell ref="G8:G15"/>
+    <mergeCell ref="F5:G7"/>
+    <mergeCell ref="J5:K7"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E15"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1FBDBB-62F6-4D8E-9368-9FA60DE9E45E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>